--- a/ScienceFair.xlsx
+++ b/ScienceFair.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gowri\Full stack development\18.Dev apps cont CICD-Cont monitiring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gowri\Full stack development\18.Dev apps cont CICD-Cont monitiring\Day3\CICDDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61B1A18-3B2D-49F7-8328-E983D5D11715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6714C1C7-DAD1-4B48-AD85-86DB1FDB94CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9270" xr2:uid="{294CB882-306B-4F58-84CD-E08479C54863}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{294CB882-306B-4F58-84CD-E08479C54863}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Student Name</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Ava Martinez</t>
   </si>
   <si>
-    <t>Sunit</t>
-  </si>
-  <si>
     <t>Solar Power Car</t>
   </si>
   <si>
@@ -77,13 +74,13 @@
     <t>Balloon Rocket Race</t>
   </si>
   <si>
-    <t>Simple Machine Proj</t>
-  </si>
-  <si>
     <t>Volcano Experiment</t>
   </si>
   <si>
     <t>Water Purification</t>
+  </si>
+  <si>
+    <t>Manisha</t>
   </si>
 </sst>
 </file>
@@ -134,11 +131,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +472,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A7" sqref="A7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,17 +499,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>9</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>8.5</v>
       </c>
     </row>
@@ -522,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -535,19 +533,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
         <v>5.5</v>
       </c>
     </row>
@@ -556,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>9</v>
@@ -569,49 +567,35 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ScienceFair.xlsx
+++ b/ScienceFair.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gowri\Full stack development\18.Dev apps cont CICD-Cont monitiring\Day3\CICDDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6714C1C7-DAD1-4B48-AD85-86DB1FDB94CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA535E9-15EF-4498-A8D0-6AD47E40EDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{294CB882-306B-4F58-84CD-E08479C54863}"/>
   </bookViews>
@@ -110,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -118,23 +118,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFD9456-918B-4428-A8B2-9C9265815262}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,20 +573,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
